--- a/38. Car_Sales_Kaggle_Dashboards_Lab3_Start.xlsx
+++ b/38. Car_Sales_Kaggle_Dashboards_Lab3_Start.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B551BE4-2E35-4CE1-921E-322F1D2A8BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B198E4-19A1-4BB7-8893-7C3006662A34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Bar Chart" sheetId="2" r:id="rId2"/>
     <sheet name="Column, Pie, Sunburst Chart" sheetId="3" r:id="rId3"/>
     <sheet name="Dashboards" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">'Column, Pie, Sunburst Chart'!$B$2:$B$156</definedName>
@@ -28,12 +29,12 @@
   </definedNames>
   <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
-        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -41,7 +42,7 @@
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main">
-        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
       </x15:slicerCaches>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -5889,7 +5890,26 @@
         </cx:series>
       </cx:plotAreaRegion>
     </cx:plotArea>
-    <cx:legend pos="r" align="ctr" overlay="0"/>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -11160,7 +11180,7 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>525780</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -11202,7 +11222,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>335280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -11242,8 +11262,8 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>167640</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -11283,7 +11303,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="6659880" y="3916680"/>
-              <a:ext cx="4389120" cy="2468880"/>
+              <a:ext cx="4389120" cy="2644140"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -11324,7 +11344,7 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>350520</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
       <mc:Choice Requires="sle15">
@@ -11399,7 +11419,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
@@ -36291,7 +36311,7 @@
   <dimension ref="A1:X36"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="X36" sqref="X36"/>
+      <selection activeCell="X34" sqref="X34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -37248,4 +37268,16 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0872A472-4A23-45E4-B1BE-BC106C393BB6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>